--- a/tmp/data_xslx_to_json.xlsx
+++ b/tmp/data_xslx_to_json.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
